--- a/data/pca/factorExposure/factorExposure_2013-03-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0003962996803448888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002121827066826935</v>
+      </c>
+      <c r="C2">
+        <v>-0.03273554203766599</v>
+      </c>
+      <c r="D2">
+        <v>-0.0007905618561306064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001924846383637085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006023853809119878</v>
+      </c>
+      <c r="C4">
+        <v>-0.08455796269823357</v>
+      </c>
+      <c r="D4">
+        <v>-0.08041680983906407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0007413169132747354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0136100688621999</v>
+      </c>
+      <c r="C6">
+        <v>-0.1140810621063354</v>
+      </c>
+      <c r="D6">
+        <v>-0.03052013015109562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001594619310087274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004699382545629563</v>
+      </c>
+      <c r="C7">
+        <v>-0.05617275852612613</v>
+      </c>
+      <c r="D7">
+        <v>-0.03316844014430634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.000378398620267773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005659725849508383</v>
+      </c>
+      <c r="C8">
+        <v>-0.0388129818588264</v>
+      </c>
+      <c r="D8">
+        <v>-0.04296379562106219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004201044173113286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004125973062944746</v>
+      </c>
+      <c r="C9">
+        <v>-0.07068122891728283</v>
+      </c>
+      <c r="D9">
+        <v>-0.07075030793980917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004370202438892535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005297665896935338</v>
+      </c>
+      <c r="C10">
+        <v>-0.06027924890370585</v>
+      </c>
+      <c r="D10">
+        <v>0.2022276920372803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002689770937913776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.00532751360343385</v>
+      </c>
+      <c r="C11">
+        <v>-0.08055452884418747</v>
+      </c>
+      <c r="D11">
+        <v>-0.05998825751861597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0002958735304514147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003937420971908923</v>
+      </c>
+      <c r="C12">
+        <v>-0.06447402315707423</v>
+      </c>
+      <c r="D12">
+        <v>-0.04490342722402545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003288225132272025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008519606614587484</v>
+      </c>
+      <c r="C13">
+        <v>-0.06684346261567649</v>
+      </c>
+      <c r="D13">
+        <v>-0.06808907268948011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001317205241823865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001386669406074306</v>
+      </c>
+      <c r="C14">
+        <v>-0.04632616515161709</v>
+      </c>
+      <c r="D14">
+        <v>-0.009127309756621682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001006835793640686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005809982070525519</v>
+      </c>
+      <c r="C15">
+        <v>-0.04240629434043013</v>
+      </c>
+      <c r="D15">
+        <v>-0.03074941577680566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001220905799931194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004914274012245125</v>
+      </c>
+      <c r="C16">
+        <v>-0.06661587140405294</v>
+      </c>
+      <c r="D16">
+        <v>-0.04506742185509634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>5.754346241898116e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008774646146440662</v>
+      </c>
+      <c r="C20">
+        <v>-0.06772598763539173</v>
+      </c>
+      <c r="D20">
+        <v>-0.04655651048590886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005107257721546891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009756398977222197</v>
+      </c>
+      <c r="C21">
+        <v>-0.02373389508452939</v>
+      </c>
+      <c r="D21">
+        <v>-0.0333192087266483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01776589182665437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006858092411148008</v>
+      </c>
+      <c r="C22">
+        <v>-0.09490564038879069</v>
+      </c>
+      <c r="D22">
+        <v>-0.09910864895206303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01807837133192131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006678960736306876</v>
+      </c>
+      <c r="C23">
+        <v>-0.09569504827664188</v>
+      </c>
+      <c r="D23">
+        <v>-0.0992353672711965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001877850716145745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005010808673697781</v>
+      </c>
+      <c r="C24">
+        <v>-0.0759248073239719</v>
+      </c>
+      <c r="D24">
+        <v>-0.05793748557483566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003823636111886656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002728363161088606</v>
+      </c>
+      <c r="C25">
+        <v>-0.07834350937899755</v>
+      </c>
+      <c r="D25">
+        <v>-0.0651568058217096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00568864967623997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003455956432511296</v>
+      </c>
+      <c r="C26">
+        <v>-0.04143589252706449</v>
+      </c>
+      <c r="D26">
+        <v>-0.0239447582225769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004017944295860503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001265622156030892</v>
+      </c>
+      <c r="C28">
+        <v>-0.1071798310485828</v>
+      </c>
+      <c r="D28">
+        <v>0.3192799325856187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009595675624505144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002989511800933789</v>
+      </c>
+      <c r="C29">
+        <v>-0.04960942270691989</v>
+      </c>
+      <c r="D29">
+        <v>-0.004094650052605312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003237156397369247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008913708804983923</v>
+      </c>
+      <c r="C30">
+        <v>-0.1455249105914248</v>
+      </c>
+      <c r="D30">
+        <v>-0.1004361419791913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0009768301972284032</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006044366489534786</v>
+      </c>
+      <c r="C31">
+        <v>-0.04486800054468062</v>
+      </c>
+      <c r="D31">
+        <v>-0.03330119738257028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-7.977229082962775e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003732999362040845</v>
+      </c>
+      <c r="C32">
+        <v>-0.04084411646312717</v>
+      </c>
+      <c r="D32">
+        <v>-0.02153438563010946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003015884804284144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007974968047664337</v>
+      </c>
+      <c r="C33">
+        <v>-0.08710514331631808</v>
+      </c>
+      <c r="D33">
+        <v>-0.0698211451576687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004263998552802886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00378469139834394</v>
+      </c>
+      <c r="C34">
+        <v>-0.05886929927235275</v>
+      </c>
+      <c r="D34">
+        <v>-0.05040163198251355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002421537218850227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004749058494862501</v>
+      </c>
+      <c r="C35">
+        <v>-0.03918352417076841</v>
+      </c>
+      <c r="D35">
+        <v>-0.0141497947219645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003909259197188174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001462036650831553</v>
+      </c>
+      <c r="C36">
+        <v>-0.02436631476704452</v>
+      </c>
+      <c r="D36">
+        <v>-0.02117241733702009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002658355456724843</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009413385024470328</v>
+      </c>
+      <c r="C38">
+        <v>-0.03401573874348778</v>
+      </c>
+      <c r="D38">
+        <v>-0.01788070244309296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01234118465627162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001065494478314448</v>
+      </c>
+      <c r="C39">
+        <v>-0.1174638061046972</v>
+      </c>
+      <c r="D39">
+        <v>-0.07151511908324244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009184774768435273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002034485568694846</v>
+      </c>
+      <c r="C40">
+        <v>-0.08876313720096932</v>
+      </c>
+      <c r="D40">
+        <v>-0.0158796476312813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003164671879759654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.00714169271850985</v>
+      </c>
+      <c r="C41">
+        <v>-0.03778489070970614</v>
+      </c>
+      <c r="D41">
+        <v>-0.03466175817104486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00310478557424489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003514234338608388</v>
+      </c>
+      <c r="C43">
+        <v>-0.05195044203593365</v>
+      </c>
+      <c r="D43">
+        <v>-0.0238033338650359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002879847301943948</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003090512956619252</v>
+      </c>
+      <c r="C44">
+        <v>-0.1124663516816807</v>
+      </c>
+      <c r="D44">
+        <v>-0.07087280437079903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001394555904468697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002277308975809333</v>
+      </c>
+      <c r="C46">
+        <v>-0.03488641097455338</v>
+      </c>
+      <c r="D46">
+        <v>-0.02930831654850052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001709503594417721</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002662542182333773</v>
+      </c>
+      <c r="C47">
+        <v>-0.0375125969826577</v>
+      </c>
+      <c r="D47">
+        <v>-0.02679922280635849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003670515416850151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006312413250795078</v>
+      </c>
+      <c r="C48">
+        <v>-0.02893262325542496</v>
+      </c>
+      <c r="D48">
+        <v>-0.03122831993315105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01345868442744913</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01454471890788961</v>
+      </c>
+      <c r="C49">
+        <v>-0.1838912677202487</v>
+      </c>
+      <c r="D49">
+        <v>-0.01366998119108137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006525436717983615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003516397169716394</v>
+      </c>
+      <c r="C50">
+        <v>-0.04402004895264576</v>
+      </c>
+      <c r="D50">
+        <v>-0.03585162368655388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006645774109353877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004240685942897425</v>
+      </c>
+      <c r="C51">
+        <v>-0.02539504246993038</v>
+      </c>
+      <c r="D51">
+        <v>-0.02084218440489419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0004421917614074138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02018860689787936</v>
+      </c>
+      <c r="C53">
+        <v>-0.1685373216981901</v>
+      </c>
+      <c r="D53">
+        <v>-0.03873511006415964</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001574546509384826</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008579805632872426</v>
+      </c>
+      <c r="C54">
+        <v>-0.05581637560857055</v>
+      </c>
+      <c r="D54">
+        <v>-0.04176119223937077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004369758735575237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009276305612771272</v>
+      </c>
+      <c r="C55">
+        <v>-0.1099604503430024</v>
+      </c>
+      <c r="D55">
+        <v>-0.04577879819393128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002821583205481309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.019610577692856</v>
+      </c>
+      <c r="C56">
+        <v>-0.1756547045668241</v>
+      </c>
+      <c r="D56">
+        <v>-0.03601540140192649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007061963193169106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01944588119617655</v>
+      </c>
+      <c r="C58">
+        <v>-0.1124426557949089</v>
+      </c>
+      <c r="D58">
+        <v>-0.05245075957439902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006857003434395385</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.0089910090634183</v>
+      </c>
+      <c r="C59">
+        <v>-0.1607493550095534</v>
+      </c>
+      <c r="D59">
+        <v>0.3056628565644177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004359209922473736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02292438336671362</v>
+      </c>
+      <c r="C60">
+        <v>-0.223072726078684</v>
+      </c>
+      <c r="D60">
+        <v>-0.02272851142674489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01398177857978779</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002165731144399736</v>
+      </c>
+      <c r="C61">
+        <v>-0.09517407991186154</v>
+      </c>
+      <c r="D61">
+        <v>-0.0575743552543995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1685557587591904</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1442029533327514</v>
+      </c>
+      <c r="C62">
+        <v>-0.08871179134659132</v>
+      </c>
+      <c r="D62">
+        <v>-0.05249863513452542</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001297060987309886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006064589944295101</v>
+      </c>
+      <c r="C63">
+        <v>-0.0566120416676373</v>
+      </c>
+      <c r="D63">
+        <v>-0.02507110228632323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004954117385375473</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01474546181746083</v>
+      </c>
+      <c r="C64">
+        <v>-0.1041280819589612</v>
+      </c>
+      <c r="D64">
+        <v>-0.05828498963080081</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002140344575903116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0173478096838087</v>
+      </c>
+      <c r="C65">
+        <v>-0.1212503370955284</v>
+      </c>
+      <c r="D65">
+        <v>-0.01679432831973965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007152490857883467</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01233305466364855</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595125034891278</v>
+      </c>
+      <c r="D66">
+        <v>-0.1124577103997514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003958397458051719</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01543975092877948</v>
+      </c>
+      <c r="C67">
+        <v>-0.06449008375412646</v>
+      </c>
+      <c r="D67">
+        <v>-0.02683255159453219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006263560446694053</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004424205599035576</v>
+      </c>
+      <c r="C68">
+        <v>-0.08829314334884401</v>
+      </c>
+      <c r="D68">
+        <v>0.2539004202934446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002852249685959374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005949623776020877</v>
+      </c>
+      <c r="C69">
+        <v>-0.05047075488477464</v>
+      </c>
+      <c r="D69">
+        <v>-0.0398984025407929</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002675884922066175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001872788306224504</v>
+      </c>
+      <c r="C70">
+        <v>-0.00274951708372645</v>
+      </c>
+      <c r="D70">
+        <v>-0.001308038347027895</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002451008189429963</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005635557446184531</v>
+      </c>
+      <c r="C71">
+        <v>-0.0980296742120788</v>
+      </c>
+      <c r="D71">
+        <v>0.3007229406502063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004842977845230655</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01543581748465099</v>
+      </c>
+      <c r="C72">
+        <v>-0.1497727695461208</v>
+      </c>
+      <c r="D72">
+        <v>-0.02430943554832578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01257355708080145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02898379607808335</v>
+      </c>
+      <c r="C73">
+        <v>-0.2776622800948591</v>
+      </c>
+      <c r="D73">
+        <v>-0.04350617126653211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005020170865895246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001401406177080677</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047001924301758</v>
+      </c>
+      <c r="D74">
+        <v>-0.0412775614821999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002357584101737563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0106165793212134</v>
+      </c>
+      <c r="C75">
+        <v>-0.129813290763949</v>
+      </c>
+      <c r="D75">
+        <v>-0.02409208313986401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009267382354999984</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0213117841017175</v>
+      </c>
+      <c r="C76">
+        <v>-0.1501274532007751</v>
+      </c>
+      <c r="D76">
+        <v>-0.06681810343720446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0006575288341813074</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02331353341309828</v>
+      </c>
+      <c r="C77">
+        <v>-0.1325653658667578</v>
+      </c>
+      <c r="D77">
+        <v>-0.03930968341985855</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008848957262669537</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01432127339822278</v>
+      </c>
+      <c r="C78">
+        <v>-0.09516664925009641</v>
+      </c>
+      <c r="D78">
+        <v>-0.06491265789830407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02354313460393732</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03706524424741191</v>
+      </c>
+      <c r="C79">
+        <v>-0.1559539599474037</v>
+      </c>
+      <c r="D79">
+        <v>-0.03662047581396764</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004485698006352888</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01053996494506322</v>
+      </c>
+      <c r="C80">
+        <v>-0.04311980192494582</v>
+      </c>
+      <c r="D80">
+        <v>-0.02855318822508065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009226280129926868</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01466631458702213</v>
+      </c>
+      <c r="C81">
+        <v>-0.1266585398839189</v>
+      </c>
+      <c r="D81">
+        <v>-0.04584585430802875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005802153803410104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01954219602876847</v>
+      </c>
+      <c r="C82">
+        <v>-0.1443451141857792</v>
+      </c>
+      <c r="D82">
+        <v>-0.04441561934153665</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009071891851214325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009938535514823169</v>
+      </c>
+      <c r="C83">
+        <v>-0.0570620521191638</v>
+      </c>
+      <c r="D83">
+        <v>-0.05588188399126245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01329826495641304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0116606589995979</v>
+      </c>
+      <c r="C84">
+        <v>-0.03820410456071751</v>
+      </c>
+      <c r="D84">
+        <v>0.007283311997751827</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01456363395387762</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02782378732619985</v>
+      </c>
+      <c r="C85">
+        <v>-0.129685946517203</v>
+      </c>
+      <c r="D85">
+        <v>-0.04637740116094526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008159115507088727</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005316087928442471</v>
+      </c>
+      <c r="C86">
+        <v>-0.04924199005005194</v>
+      </c>
+      <c r="D86">
+        <v>-0.02373066114800554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004647324895129365</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01022471007317283</v>
+      </c>
+      <c r="C87">
+        <v>-0.1339471999535807</v>
+      </c>
+      <c r="D87">
+        <v>-0.06213151615869179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01290960934343956</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00314204215792865</v>
+      </c>
+      <c r="C88">
+        <v>-0.06735098072889573</v>
+      </c>
+      <c r="D88">
+        <v>-0.008729916501906548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01438777717488116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002108028393965395</v>
+      </c>
+      <c r="C89">
+        <v>-0.145622845917469</v>
+      </c>
+      <c r="D89">
+        <v>0.3460865774164555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002216184333248369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.0064243974141706</v>
+      </c>
+      <c r="C90">
+        <v>-0.1218872464598357</v>
+      </c>
+      <c r="D90">
+        <v>0.3247969892527479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001316074596627207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01015033238409372</v>
+      </c>
+      <c r="C91">
+        <v>-0.1030713943985282</v>
+      </c>
+      <c r="D91">
+        <v>-0.02445892603529154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008533029107301382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0002169864317059578</v>
+      </c>
+      <c r="C92">
+        <v>-0.1351359241389917</v>
+      </c>
+      <c r="D92">
+        <v>0.3349294535509235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003317445883045284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004447634305851899</v>
+      </c>
+      <c r="C93">
+        <v>-0.1049626421084605</v>
+      </c>
+      <c r="D93">
+        <v>0.3132014489729753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004111335712537045</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02219121967676661</v>
+      </c>
+      <c r="C94">
+        <v>-0.1521981740361416</v>
+      </c>
+      <c r="D94">
+        <v>-0.04904105852733</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005350737349092637</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01597278762350225</v>
+      </c>
+      <c r="C95">
+        <v>-0.1275284105723106</v>
+      </c>
+      <c r="D95">
+        <v>-0.06364878443168154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002115259919422855</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03404113461923521</v>
+      </c>
+      <c r="C97">
+        <v>-0.1950985157269046</v>
+      </c>
+      <c r="D97">
+        <v>-0.005818409463611477</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004243549718143265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03586153688880839</v>
+      </c>
+      <c r="C98">
+        <v>-0.2474838252017971</v>
+      </c>
+      <c r="D98">
+        <v>-0.05102693047189072</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9837974368093543</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982718024312197</v>
+      </c>
+      <c r="C99">
+        <v>0.1115672887452918</v>
+      </c>
+      <c r="D99">
+        <v>0.0287779083823498</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009066437772901983</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003035437509224948</v>
+      </c>
+      <c r="C101">
+        <v>-0.0497422105128186</v>
+      </c>
+      <c r="D101">
+        <v>-0.004253061699975028</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
